--- a/biology/Médecine/1104_en_santé_et_médecine/1104_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1104_en_santé_et_médecine/1104_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1104_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1104_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1104 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1104_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1104_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bernard III, comte d'Armagnac, « fonde un hôpital ou ladrerie à Nogaro », en Gascogne[1].
-Gaston IV et Talèse d'Aragon, vicomte et vicomtesse de Béarn, refondent par une importante donation l'hôpital Sainte-Christine, au col du Somport, dans l'intention d'en faire la maison-mère d'un réseau d'établissements placés sur la via Tolosana du pèlerinage de Compostelle[2],[3].
-Sous Baudouin Ier, roi de Jérusalem, les frères de l'hôpital Saint-Jean-Baptiste, futurs hospitaliers de l'ordre de Saint-Jean, reçoivent du pape Pascal II la charge de faire assurer par les armes la sécurité des pèlerins[4].
-Par un acte qui peut être tenu pour fondateur de la congrégation des dames hospitalières de Saint-Jean de Jérusalem, Agnès, abbesse de l'hôpital Sainte-Marie-Madeleine de Jérusalem, adopte avec ses sœurs la règle suivie par le frère Gérard[5],[6].
-En Chine, au Hebei, sous les Song, l'empereur Huizong crée l'ensemble de cimetières pour les pauvres qui, avec le réseau des hospices et des hôpitaux, doit former « un service de santé publique financé et géré par le gouvernement[7] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bernard III, comte d'Armagnac, « fonde un hôpital ou ladrerie à Nogaro », en Gascogne.
+Gaston IV et Talèse d'Aragon, vicomte et vicomtesse de Béarn, refondent par une importante donation l'hôpital Sainte-Christine, au col du Somport, dans l'intention d'en faire la maison-mère d'un réseau d'établissements placés sur la via Tolosana du pèlerinage de Compostelle,.
+Sous Baudouin Ier, roi de Jérusalem, les frères de l'hôpital Saint-Jean-Baptiste, futurs hospitaliers de l'ordre de Saint-Jean, reçoivent du pape Pascal II la charge de faire assurer par les armes la sécurité des pèlerins.
+Par un acte qui peut être tenu pour fondateur de la congrégation des dames hospitalières de Saint-Jean de Jérusalem, Agnès, abbesse de l'hôpital Sainte-Marie-Madeleine de Jérusalem, adopte avec ses sœurs la règle suivie par le frère Gérard,.
+En Chine, au Hebei, sous les Song, l'empereur Huizong crée l'ensemble de cimetières pour les pauvres qui, avec le réseau des hospices et des hôpitaux, doit former « un service de santé publique financé et géré par le gouvernement ».</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1104_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1104_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Avant juillet : Géraud de Villaceses, abbé de Saint-Augustin de Limoges, meurt « frappé de la lèpre à la fin de ses jours[8] ».
-« Les plus anciens règlements sanitaires, qui contrôlent la propreté des rues, la vente de diverses denrées alimentaires et la construction de bâtiments résidentiels, sont introduits à  Augsbourg[9] », en Allemagne.
-1104-1105 : une épidémie de variole « ravag[e] l'ensemble du Proche-Orient[10] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Avant juillet : Géraud de Villaceses, abbé de Saint-Augustin de Limoges, meurt « frappé de la lèpre à la fin de ses jours ».
+« Les plus anciens règlements sanitaires, qui contrôlent la propreté des rues, la vente de diverses denrées alimentaires et la construction de bâtiments résidentiels, sont introduits à  Augsbourg », en Allemagne.
+1104-1105 : une épidémie de variole « ravag[e] l'ensemble du Proche-Orient ».</t>
         </is>
       </c>
     </row>
